--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7701622945818</v>
+        <v>25.02674933333333</v>
       </c>
       <c r="H2">
-        <v>14.7701622945818</v>
+        <v>75.080248</v>
       </c>
       <c r="I2">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="J2">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N2">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P2">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q2">
-        <v>1306.340373336834</v>
+        <v>2476.314858902517</v>
       </c>
       <c r="R2">
-        <v>1306.340373336834</v>
+        <v>22286.83373012266</v>
       </c>
       <c r="S2">
-        <v>0.007231744518591609</v>
+        <v>0.01214284126043286</v>
       </c>
       <c r="T2">
-        <v>0.007231744518591609</v>
+        <v>0.01214284126043286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.7701622945818</v>
+        <v>25.02674933333333</v>
       </c>
       <c r="H3">
-        <v>14.7701622945818</v>
+        <v>75.080248</v>
       </c>
       <c r="I3">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="J3">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N3">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P3">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q3">
-        <v>2405.135767525282</v>
+        <v>4079.516199799926</v>
       </c>
       <c r="R3">
-        <v>2405.135767525282</v>
+        <v>36715.64579819934</v>
       </c>
       <c r="S3">
-        <v>0.01331454478348637</v>
+        <v>0.02000428881466599</v>
       </c>
       <c r="T3">
-        <v>0.01331454478348637</v>
+        <v>0.02000428881466599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.7701622945818</v>
+        <v>25.02674933333333</v>
       </c>
       <c r="H4">
-        <v>14.7701622945818</v>
+        <v>75.080248</v>
       </c>
       <c r="I4">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="J4">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N4">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P4">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q4">
-        <v>913.0993576178709</v>
+        <v>1636.651968922596</v>
       </c>
       <c r="R4">
-        <v>913.0993576178709</v>
+        <v>14729.86772030336</v>
       </c>
       <c r="S4">
-        <v>0.005054809151703316</v>
+        <v>0.008025475833880752</v>
       </c>
       <c r="T4">
-        <v>0.005054809151703316</v>
+        <v>0.008025475833880752</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.7701622945818</v>
+        <v>25.02674933333333</v>
       </c>
       <c r="H5">
-        <v>14.7701622945818</v>
+        <v>75.080248</v>
       </c>
       <c r="I5">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="J5">
-        <v>0.03707362587624367</v>
+        <v>0.05787790829091637</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N5">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P5">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q5">
-        <v>2072.394249775753</v>
+        <v>3610.679117795635</v>
       </c>
       <c r="R5">
-        <v>2072.394249775753</v>
+        <v>32496.11206016072</v>
       </c>
       <c r="S5">
-        <v>0.01147252742246238</v>
+        <v>0.01770530238193677</v>
       </c>
       <c r="T5">
-        <v>0.01147252742246238</v>
+        <v>0.01770530238193677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>137.130047720378</v>
+        <v>138.9376323333333</v>
       </c>
       <c r="H6">
-        <v>137.130047720378</v>
+        <v>416.812897</v>
       </c>
       <c r="I6">
-        <v>0.3442012338240648</v>
+        <v>0.3213129853678317</v>
       </c>
       <c r="J6">
-        <v>0.3442012338240648</v>
+        <v>0.3213129853678316</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N6">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P6">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q6">
-        <v>12128.40550847912</v>
+        <v>13747.42355969981</v>
       </c>
       <c r="R6">
-        <v>12128.40550847912</v>
+        <v>123726.8120372983</v>
       </c>
       <c r="S6">
-        <v>0.06714140651655771</v>
+        <v>0.06741177577852636</v>
       </c>
       <c r="T6">
-        <v>0.06714140651655771</v>
+        <v>0.06741177577852636</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>137.130047720378</v>
+        <v>138.9376323333333</v>
       </c>
       <c r="H7">
-        <v>137.130047720378</v>
+        <v>416.812897</v>
       </c>
       <c r="I7">
-        <v>0.3442012338240648</v>
+        <v>0.3213129853678317</v>
       </c>
       <c r="J7">
-        <v>0.3442012338240648</v>
+        <v>0.3213129853678316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N7">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P7">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q7">
-        <v>22329.90917748533</v>
+        <v>22647.70043909602</v>
       </c>
       <c r="R7">
-        <v>22329.90917748533</v>
+        <v>203829.3039518642</v>
       </c>
       <c r="S7">
-        <v>0.1236157142433276</v>
+        <v>0.1110551149653319</v>
       </c>
       <c r="T7">
-        <v>0.1236157142433276</v>
+        <v>0.1110551149653319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>137.130047720378</v>
+        <v>138.9376323333333</v>
       </c>
       <c r="H8">
-        <v>137.130047720378</v>
+        <v>416.812897</v>
       </c>
       <c r="I8">
-        <v>0.3442012338240648</v>
+        <v>0.3213129853678317</v>
       </c>
       <c r="J8">
-        <v>0.3442012338240648</v>
+        <v>0.3213129853678316</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N8">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P8">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q8">
-        <v>8477.453123823674</v>
+        <v>9085.980224084786</v>
       </c>
       <c r="R8">
-        <v>8477.453123823674</v>
+        <v>81773.82201676306</v>
       </c>
       <c r="S8">
-        <v>0.04693016951105244</v>
+        <v>0.04455395288682754</v>
       </c>
       <c r="T8">
-        <v>0.04693016951105244</v>
+        <v>0.04455395288682754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>137.130047720378</v>
+        <v>138.9376323333333</v>
       </c>
       <c r="H9">
-        <v>137.130047720378</v>
+        <v>416.812897</v>
       </c>
       <c r="I9">
-        <v>0.3442012338240648</v>
+        <v>0.3213129853678317</v>
       </c>
       <c r="J9">
-        <v>0.3442012338240648</v>
+        <v>0.3213129853678316</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N9">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P9">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q9">
-        <v>19240.64994678059</v>
+        <v>20044.92077897509</v>
       </c>
       <c r="R9">
-        <v>19240.64994678059</v>
+        <v>180404.2870107758</v>
       </c>
       <c r="S9">
-        <v>0.106513943553127</v>
+        <v>0.09829214173714593</v>
       </c>
       <c r="T9">
-        <v>0.106513943553127</v>
+        <v>0.09829214173714593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>81.09402437419971</v>
+        <v>98.29468800000001</v>
       </c>
       <c r="H10">
-        <v>81.09402437419971</v>
+        <v>294.884064</v>
       </c>
       <c r="I10">
-        <v>0.203548848041496</v>
+        <v>0.2273204107243322</v>
       </c>
       <c r="J10">
-        <v>0.203548848041496</v>
+        <v>0.2273204107243321</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N10">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P10">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q10">
-        <v>7172.324580024384</v>
+        <v>9725.937364202113</v>
       </c>
       <c r="R10">
-        <v>7172.324580024384</v>
+        <v>87533.43627781901</v>
       </c>
       <c r="S10">
-        <v>0.03970513353626341</v>
+        <v>0.04769204251141158</v>
       </c>
       <c r="T10">
-        <v>0.03970513353626341</v>
+        <v>0.04769204251141158</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>81.09402437419971</v>
+        <v>98.29468800000001</v>
       </c>
       <c r="H11">
-        <v>81.09402437419971</v>
+        <v>294.884064</v>
       </c>
       <c r="I11">
-        <v>0.203548848041496</v>
+        <v>0.2273204107243322</v>
       </c>
       <c r="J11">
-        <v>0.203548848041496</v>
+        <v>0.2273204107243321</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N11">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P11">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q11">
-        <v>13205.14525602084</v>
+        <v>16022.64707690947</v>
       </c>
       <c r="R11">
-        <v>13205.14525602084</v>
+        <v>144203.8236921853</v>
       </c>
       <c r="S11">
-        <v>0.07310210935187213</v>
+        <v>0.07856854685800252</v>
       </c>
       <c r="T11">
-        <v>0.07310210935187213</v>
+        <v>0.07856854685800251</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>81.09402437419971</v>
+        <v>98.29468800000001</v>
       </c>
       <c r="H12">
-        <v>81.09402437419971</v>
+        <v>294.884064</v>
       </c>
       <c r="I12">
-        <v>0.203548848041496</v>
+        <v>0.2273204107243322</v>
       </c>
       <c r="J12">
-        <v>0.203548848041496</v>
+        <v>0.2273204107243321</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N12">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P12">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q12">
-        <v>5013.276095814645</v>
+        <v>6428.089901214722</v>
       </c>
       <c r="R12">
-        <v>5013.276095814645</v>
+        <v>57852.8091109325</v>
       </c>
       <c r="S12">
-        <v>0.02775289860596368</v>
+        <v>0.03152073937513559</v>
       </c>
       <c r="T12">
-        <v>0.02775289860596368</v>
+        <v>0.03152073937513559</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>81.09402437419971</v>
+        <v>98.29468800000001</v>
       </c>
       <c r="H13">
-        <v>81.09402437419971</v>
+        <v>294.884064</v>
       </c>
       <c r="I13">
-        <v>0.203548848041496</v>
+        <v>0.2273204107243322</v>
       </c>
       <c r="J13">
-        <v>0.203548848041496</v>
+        <v>0.2273204107243321</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N13">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P13">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q13">
-        <v>11378.26290953593</v>
+        <v>14181.24953523744</v>
       </c>
       <c r="R13">
-        <v>11378.26290953593</v>
+        <v>127631.245817137</v>
       </c>
       <c r="S13">
-        <v>0.06298870654739684</v>
+        <v>0.06953908197978244</v>
       </c>
       <c r="T13">
-        <v>0.06298870654739684</v>
+        <v>0.06953908197978242</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>165.406567946345</v>
+        <v>170.1468356666666</v>
       </c>
       <c r="H14">
-        <v>165.406567946345</v>
+        <v>510.440507</v>
       </c>
       <c r="I14">
-        <v>0.4151762922581955</v>
+        <v>0.3934886956169198</v>
       </c>
       <c r="J14">
-        <v>0.4151762922581955</v>
+        <v>0.3934886956169198</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>88.4445510673938</v>
+        <v>98.946724</v>
       </c>
       <c r="N14">
-        <v>88.4445510673938</v>
+        <v>296.840172</v>
       </c>
       <c r="O14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="P14">
-        <v>0.1950643981447098</v>
+        <v>0.2098009692989996</v>
       </c>
       <c r="Q14">
-        <v>14629.30964561285</v>
+        <v>16835.47198818302</v>
       </c>
       <c r="R14">
-        <v>14629.30964561285</v>
+        <v>151519.2478936472</v>
       </c>
       <c r="S14">
-        <v>0.08098611357329703</v>
+        <v>0.08255430974862879</v>
       </c>
       <c r="T14">
-        <v>0.08098611357329703</v>
+        <v>0.08255430974862879</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>165.406567946345</v>
+        <v>170.1468356666666</v>
       </c>
       <c r="H15">
-        <v>165.406567946345</v>
+        <v>510.440507</v>
       </c>
       <c r="I15">
-        <v>0.4151762922581955</v>
+        <v>0.3934886956169198</v>
       </c>
       <c r="J15">
-        <v>0.4151762922581955</v>
+        <v>0.3934886956169198</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.837463770291</v>
+        <v>163.0062356666667</v>
       </c>
       <c r="N15">
-        <v>162.837463770291</v>
+        <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.3591379172873989</v>
+        <v>0.345629090707923</v>
       </c>
       <c r="P15">
-        <v>0.3591379172873989</v>
+        <v>0.3456290907079231</v>
       </c>
       <c r="Q15">
-        <v>26934.38601533113</v>
+        <v>27734.99519261827</v>
       </c>
       <c r="R15">
-        <v>26934.38601533113</v>
+        <v>249614.9567335644</v>
       </c>
       <c r="S15">
-        <v>0.1491055489087127</v>
+        <v>0.1360011400699227</v>
       </c>
       <c r="T15">
-        <v>0.1491055489087127</v>
+        <v>0.1360011400699227</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>165.406567946345</v>
+        <v>170.1468356666666</v>
       </c>
       <c r="H16">
-        <v>165.406567946345</v>
+        <v>510.440507</v>
       </c>
       <c r="I16">
-        <v>0.4151762922581955</v>
+        <v>0.3934886956169198</v>
       </c>
       <c r="J16">
-        <v>0.4151762922581955</v>
+        <v>0.3934886956169198</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.8205365253723</v>
+        <v>65.39610666666668</v>
       </c>
       <c r="N16">
-        <v>61.8205365253723</v>
+        <v>196.18832</v>
       </c>
       <c r="O16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="P16">
-        <v>0.1363451519033205</v>
+        <v>0.1386621609326595</v>
       </c>
       <c r="Q16">
-        <v>10225.5227752635</v>
+        <v>11126.94061425314</v>
       </c>
       <c r="R16">
-        <v>10225.5227752635</v>
+        <v>100142.4655282782</v>
       </c>
       <c r="S16">
-        <v>0.05660727463460106</v>
+        <v>0.05456199283681559</v>
       </c>
       <c r="T16">
-        <v>0.05660727463460106</v>
+        <v>0.05456199283681559</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>165.406567946345</v>
+        <v>170.1468356666666</v>
       </c>
       <c r="H17">
-        <v>165.406567946345</v>
+        <v>510.440507</v>
       </c>
       <c r="I17">
-        <v>0.4151762922581955</v>
+        <v>0.3934886956169198</v>
       </c>
       <c r="J17">
-        <v>0.4151762922581955</v>
+        <v>0.3934886956169198</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.309511056353</v>
+        <v>144.2727966666667</v>
       </c>
       <c r="N17">
-        <v>140.309511056353</v>
+        <v>432.81839</v>
       </c>
       <c r="O17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604178</v>
       </c>
       <c r="P17">
-        <v>0.309452532664571</v>
+        <v>0.3059077790604179</v>
       </c>
       <c r="Q17">
-        <v>23208.1146740611</v>
+        <v>24547.55982561375</v>
       </c>
       <c r="R17">
-        <v>23208.1146740611</v>
+        <v>220928.0384305237</v>
       </c>
       <c r="S17">
-        <v>0.1284773551415847</v>
+        <v>0.1203712529615527</v>
       </c>
       <c r="T17">
-        <v>0.1284773551415847</v>
+        <v>0.1203712529615527</v>
       </c>
     </row>
   </sheetData>
